--- a/tests/issues_format_currency_1.xlsx
+++ b/tests/issues_format_currency_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milan/supplyframe/rsbom/calamine/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B7BBB-36A9-B945-A4CA-A7655C578E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0823E3-6FA2-464F-8E51-7AC783BFA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="7140" windowWidth="26840" windowHeight="15940" xr2:uid="{9ED0D86D-F3DC-6842-A886-B66B166CB0AC}"/>
+    <workbookView xWindow="7560" yWindow="7140" windowWidth="26840" windowHeight="15940" xr2:uid="{9ED0D86D-F3DC-6842-A886-B66B166CB0AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>bla</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$₾-437]"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$₼-42C]_-;\-* #,##0.00\ [$₼-42C]_-;_-* &quot;-&quot;??\ [$₼-42C]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0000\-00\ 00\ 00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -70,10 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21550B0-A758-BC4B-9751-533789C56D22}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,6 +431,14 @@
         <v>-876545</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
